--- a/output/inference_results/test_sheets/batch_005/test_sheet (48).xlsx
+++ b/output/inference_results/test_sheets/batch_005/test_sheet (48).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,25 +424,20 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>编号</t>
+          <t>项目名称</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>项目名称</t>
+          <t>项目代码</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>项目代码</t>
+          <t>提示</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
-        <is>
-          <t>提示</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
         <is>
           <t>结果</t>
         </is>
@@ -456,11 +451,6 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>尿糖</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
           <t>GLU</t>
         </is>
       </c>
@@ -468,15 +458,10 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2尿蛋白</t>
+          <t>尿蛋白</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
-        <is>
-          <t>2尿蛋白</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
         <is>
           <t>PRO</t>
         </is>
@@ -485,15 +470,10 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3胆红素</t>
+          <t>胆红素</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
-        <is>
-          <t>3胆红素</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
         <is>
           <t>BIL</t>
         </is>
@@ -502,21 +482,16 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>尿胆原</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>尿胆原</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
           <t>URO</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t>十一</t>
         </is>
@@ -525,21 +500,16 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>酸碱度</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>酸碱度</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
           <t>PH</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
         <is>
           <t>6.5</t>
         </is>
@@ -548,21 +518,16 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6比重</t>
+          <t>比重</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6比重</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
           <t>SG</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
         <is>
           <t>1.025</t>
         </is>
@@ -576,16 +541,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>潜血</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
           <t>BLD</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
         <is>
           <t>十一</t>
         </is>
@@ -594,15 +554,10 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8耐体</t>
+          <t>耐体</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
-        <is>
-          <t>8耐体</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
         <is>
           <t>KET</t>
         </is>
@@ -611,15 +566,10 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>9亚硝酸盐</t>
+          <t>亚硝酸盐</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
-        <is>
-          <t>9亚硝酸盐</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
         <is>
           <t>NIT</t>
         </is>
@@ -628,15 +578,10 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10白细胞</t>
+          <t>白细胞</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
-        <is>
-          <t>10白细胞</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
         <is>
           <t>LEU</t>
         </is>
@@ -645,21 +590,16 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>11COLOR</t>
+          <t>RDW-CV</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>11COLOR</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
           <t>COLOR</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
         <is>
           <t>淡黄色</t>
         </is>
@@ -668,21 +608,16 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>12外观</t>
+          <t>外观</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>12外观</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
           <t>外观</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
         <is>
           <t>清亮</t>
         </is>
@@ -691,21 +626,16 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>13镜检结果</t>
+          <t>红细胞(镜检)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>13镜检结果</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
           <t>镜检结果</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
         <is>
           <t>未见异常</t>
         </is>
